--- a/public/uploads/GPEXE-Export.xlsx
+++ b/public/uploads/GPEXE-Export.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,12 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Serie name</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Vannes</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-A-PID-A0-0001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>PID Test</t>
   </si>
 </sst>
 </file>
@@ -56,8 +77,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="16" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -359,27 +392,63 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30.7109375" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.140625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.42578125" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/public/uploads/GPEXE-Export.xlsx
+++ b/public/uploads/GPEXE-Export.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,33 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Serie name</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Vannes</t>
-  </si>
-  <si>
-    <t>IP-14-064-IN-A-PID-A0-0001</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>PID Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-D-PLE-C2-4162</t>
+  </si>
+  <si>
+    <t>B0.pdf</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-D-PLE-C3-4103</t>
+  </si>
+  <si>
+    <t>E0.pdf</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-D-PLE-C3-4110</t>
+  </si>
+  <si>
+    <t>F0.pdf</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-D-PLE-C3-4111</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-D-PLE-C3-4157</t>
+  </si>
+  <si>
+    <t>C0.pdf</t>
   </si>
 </sst>
 </file>
@@ -77,20 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="16" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -392,63 +386,67 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30.7109375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="30.7109375" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.140625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.42578125" customWidth="true" style="0"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>44023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="4"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/public/uploads/GPEXE-Export.xlsx
+++ b/public/uploads/GPEXE-Export.xlsx
@@ -15,39 +15,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>IP-14-064-IN-D-PLE-C2-4162</t>
-  </si>
-  <si>
-    <t>B0.pdf</t>
-  </si>
-  <si>
-    <t>IP-14-064-IN-D-PLE-C3-4103</t>
-  </si>
-  <si>
-    <t>E0.pdf</t>
-  </si>
-  <si>
-    <t>IP-14-064-IN-D-PLE-C3-4110</t>
-  </si>
-  <si>
-    <t>F0.pdf</t>
-  </si>
-  <si>
-    <t>IP-14-064-IN-D-PLE-C3-4111</t>
-  </si>
-  <si>
-    <t>IP-14-064-IN-D-PLE-C3-4157</t>
-  </si>
-  <si>
-    <t>C0.pdf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3903-01</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-SCH-E4-3900-01</t>
+  </si>
+  <si>
+    <t>SCH</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-SCH-E4-3901-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-SCH-E4-3901-02</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-NDF-E4-3900-01</t>
+  </si>
+  <si>
+    <t>NDF</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-NDC-E4-3900-01</t>
+  </si>
+  <si>
+    <t>NDC</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3904-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-01</t>
+  </si>
+  <si>
+    <t>PVE</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-02</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-03</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-04</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-05</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-06</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-07</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-08</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3900-09</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLE-E4-3901-01</t>
+  </si>
+  <si>
+    <t>PLE</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLE-E4-3901-02</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLE-E4-3901-03</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLE-E4-3901-04</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLE-E4-3901-A0</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLE-E4-3902-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLE-E4-3903-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3900-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3900-A0</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-MAQ-E4-3900-01</t>
+  </si>
+  <si>
+    <t>MAQ</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-MAQ-E4-3900-02</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-DID-E4-3900-01</t>
+  </si>
+  <si>
+    <t>DID</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3905-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3906-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3907-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3901-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PRO-E4-3900-01</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PRO-E4-3901-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-MOP-E4-3900-01</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-MMA-E4-3900-01</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3902-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3903-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3904-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3905-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PVE-E4-3906-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-ARI-E4-3900-01</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PNG-E4-3900-01</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PAQ-E4-3900-01</t>
+  </si>
+  <si>
+    <t>PAQ</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-FID-E4-3900-01</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3901-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-LIS-E4-3902-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLG-E4-3900-01</t>
+  </si>
+  <si>
+    <t>PLG</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLG-E4-3901-01</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-PLG-E4-3901-02</t>
   </si>
 </sst>
 </file>
@@ -386,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,52 +559,404 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
